--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2193476.361258253</v>
+        <v>2193079.768404576</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275259</v>
+        <v>261098.0247275257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8974386.542553036</v>
+        <v>8974386.542553037</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>175.5378511506712</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -707,13 +707,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.73034478725425</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>132.6190792834339</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>64.92061682659491</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>7.356107761546964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4349214775331</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.7203625671217</v>
+        <v>60.28483862953522</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>60.05084523950971</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>192.3618318035423</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>13.72121530234881</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>86.89088639877551</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>204.7868890317172</v>
+        <v>268.5060838315481</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1148,10 +1148,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1218,13 +1218,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>47.18403503100786</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>117.6548529718308</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.09936770841377</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>164.1098680261443</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>75.14556308031379</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>69.85688611863738</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>41.35415002045804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,10 +1588,10 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595665</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.98893320381288</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>139.8224819138202</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>69.85688611863738</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>85.1751270182407</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808562</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627193</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C17" t="n">
         <v>204.4312603402915</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.6735248757204</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606976</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U17" t="n">
-        <v>78.65332218291672</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V17" t="n">
         <v>159.9263206227889</v>
@@ -1910,7 +1910,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>69.85688611863738</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>61.51546148052432</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.03665425730685</v>
+        <v>25.60507668829904</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.4579266611122</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T19" t="n">
-        <v>57.16400291224878</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U19" t="n">
         <v>110.6351763755619</v>
       </c>
       <c r="V19" t="n">
-        <v>84.44479065693244</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W19" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X19" t="n">
-        <v>55.25677872334882</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.1316464794165</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C20" t="n">
         <v>204.4312603402915</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.6735248757202</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T20" t="n">
-        <v>48.43219606606976</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U20" t="n">
-        <v>78.65332218291672</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V20" t="n">
         <v>159.9263206227889</v>
@@ -2147,7 +2147,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.03665425730685</v>
+        <v>8.036654257306822</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>17.56842243099221</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012014</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T22" t="n">
-        <v>57.16400291224878</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U22" t="n">
-        <v>128.203598806554</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V22" t="n">
-        <v>84.44479065693244</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W22" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X22" t="n">
-        <v>55.25677872334882</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.1316464794165</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.4199433826098</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C23" t="n">
         <v>204.4312603402915</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.6735248757204</v>
+        <v>11.67352487572037</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606976</v>
+        <v>48.43219606606974</v>
       </c>
       <c r="U23" t="n">
-        <v>78.65332218291672</v>
+        <v>78.6533221829167</v>
       </c>
       <c r="V23" t="n">
         <v>159.9263206227889</v>
@@ -2384,7 +2384,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.9232761296912</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>41.35415002045804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>85.17512701824116</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.03665425730685</v>
+        <v>8.036654257306822</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>17.56842243099221</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.56842243099205</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.88950423012014</v>
+        <v>37.88950423012011</v>
       </c>
       <c r="T25" t="n">
-        <v>57.16400291224878</v>
+        <v>57.16400291224875</v>
       </c>
       <c r="U25" t="n">
         <v>110.6351763755619</v>
       </c>
       <c r="V25" t="n">
-        <v>84.44479065693244</v>
+        <v>84.44479065693241</v>
       </c>
       <c r="W25" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X25" t="n">
-        <v>55.25677872334882</v>
+        <v>55.25677872334879</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.1316464794165</v>
+        <v>46.13164647941647</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2558,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>134.0240879008767</v>
       </c>
       <c r="E26" t="n">
-        <v>206.8663234127393</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
@@ -2615,13 +2615,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>263.7904261357071</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2855,7 +2855,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>262.0095374317136</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1762713617116</v>
@@ -2883,7 +2883,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3029,25 +3029,25 @@
         <v>245.9460223007792</v>
       </c>
       <c r="C32" t="n">
-        <v>233.957339258461</v>
+        <v>233.9573392584609</v>
       </c>
       <c r="D32" t="n">
-        <v>224.938643302989</v>
+        <v>224.9386433029889</v>
       </c>
       <c r="E32" t="n">
-        <v>246.6807808728945</v>
+        <v>246.6807808728944</v>
       </c>
       <c r="F32" t="n">
-        <v>265.8525969608717</v>
+        <v>265.8525969608716</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7858648582942</v>
+        <v>267.7858648582941</v>
       </c>
       <c r="H32" t="n">
         <v>185.3359798366041</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123225</v>
+        <v>26.93194498123219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388988</v>
+        <v>41.19960379388982</v>
       </c>
       <c r="T32" t="n">
-        <v>77.95827498423924</v>
+        <v>77.95827498423918</v>
       </c>
       <c r="U32" t="n">
-        <v>108.1794011010862</v>
+        <v>108.1794011010861</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409584</v>
+        <v>189.4523995409583</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189153</v>
+        <v>214.7524990189152</v>
       </c>
       <c r="X32" t="n">
-        <v>234.0527572516619</v>
+        <v>234.0527572516618</v>
       </c>
       <c r="Y32" t="n">
         <v>245.4493550478606</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326532</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3159,7 +3159,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56273317547632</v>
+        <v>37.56273317547627</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087681</v>
+        <v>23.76272802087675</v>
       </c>
       <c r="D34" t="n">
-        <v>7.384092418455197</v>
+        <v>7.38409241845514</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234646</v>
+        <v>6.331842274234589</v>
       </c>
       <c r="F34" t="n">
-        <v>6.798766602420955</v>
+        <v>6.798766602420898</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376879</v>
+        <v>23.07346932376873</v>
       </c>
       <c r="H34" t="n">
-        <v>13.62183694645921</v>
+        <v>13.62183694645915</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705869</v>
+        <v>3.869481749705812</v>
       </c>
       <c r="S34" t="n">
-        <v>67.41558314828961</v>
+        <v>67.41558314828956</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041825</v>
+        <v>86.69008183041819</v>
       </c>
       <c r="U34" t="n">
         <v>140.1612552937314</v>
@@ -3247,13 +3247,13 @@
         <v>113.9708695751019</v>
       </c>
       <c r="W34" t="n">
-        <v>139.1377556457152</v>
+        <v>139.1377556457151</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151829</v>
+        <v>84.78285764151823</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758598</v>
+        <v>75.65772539758592</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3876,7 +3876,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404749</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.480416220561</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4068,7 +4068,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>112.8757236914445</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="C2" t="n">
-        <v>1531.977332080917</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="D2" t="n">
-        <v>1531.977332080917</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="E2" t="n">
-        <v>1137.191612187023</v>
+        <v>1043.163363571891</v>
       </c>
       <c r="F2" t="n">
-        <v>723.0404214971936</v>
+        <v>629.0121728820611</v>
       </c>
       <c r="G2" t="n">
-        <v>545.7294607389399</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="H2" t="n">
         <v>212.9081863362491</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J2" t="n">
-        <v>112.0895318178508</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K2" t="n">
-        <v>352.2299038626335</v>
+        <v>257.4997446110828</v>
       </c>
       <c r="L2" t="n">
-        <v>700.1152769475798</v>
+        <v>605.3851176960291</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.354443200668</v>
+        <v>998.6242839491169</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.685801888383</v>
+        <v>1376.955642636833</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.690386361217</v>
+        <v>1681.960227109666</v>
       </c>
       <c r="P2" t="n">
-        <v>2004.549377252256</v>
+        <v>1910.11712356572</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R2" t="n">
-        <v>1913.911090748109</v>
+        <v>1913.91109074811</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.911090748109</v>
+        <v>1726.682115378464</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.911090748109</v>
+        <v>1502.323169109475</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="W2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="X2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
       <c r="Y2" t="n">
-        <v>1913.911090748109</v>
+        <v>1437.949083465784</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851.02146273715</v>
+        <v>919.4037480470892</v>
       </c>
       <c r="C3" t="n">
-        <v>689.3177899781048</v>
+        <v>757.7000752880439</v>
       </c>
       <c r="D3" t="n">
-        <v>550.4791529683168</v>
+        <v>618.8614382782559</v>
       </c>
       <c r="E3" t="n">
-        <v>403.4511430251881</v>
+        <v>471.8334283351272</v>
       </c>
       <c r="F3" t="n">
-        <v>268.7573449750625</v>
+        <v>337.1396302850015</v>
       </c>
       <c r="G3" t="n">
-        <v>140.0288449983471</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="H3" t="n">
-        <v>40.09098754504512</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J3" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K3" t="n">
-        <v>269.5815401052338</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="L3" t="n">
-        <v>635.4033852753494</v>
+        <v>171.3225530266542</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.436738785576</v>
+        <v>656.3559065368806</v>
       </c>
       <c r="N3" t="n">
         <v>1152.481877406814</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.681828190964</v>
+        <v>1544.681828190965</v>
       </c>
       <c r="P3" t="n">
         <v>1846.777747466662</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R3" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="S3" t="n">
-        <v>1870.590711309393</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="T3" t="n">
-        <v>1870.590711309393</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="U3" t="n">
-        <v>1870.590711309393</v>
+        <v>1938.972996619332</v>
       </c>
       <c r="V3" t="n">
-        <v>1642.195088757727</v>
+        <v>1710.577374067666</v>
       </c>
       <c r="W3" t="n">
-        <v>1400.879219991037</v>
+        <v>1469.261505300977</v>
       </c>
       <c r="X3" t="n">
-        <v>1202.962231868832</v>
+        <v>1271.344517178771</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.440905518411</v>
+        <v>1078.82319082835</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.1000017837263</v>
+        <v>200.5932925976329</v>
       </c>
       <c r="C4" t="n">
-        <v>192.1000017837263</v>
+        <v>200.5932925976329</v>
       </c>
       <c r="D4" t="n">
-        <v>192.1000017837263</v>
+        <v>47.5213994253956</v>
       </c>
       <c r="E4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="F4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="G4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="H4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="I4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K4" t="n">
         <v>73.69517528968854</v>
@@ -4510,28 +4510,28 @@
         <v>572.1502327909776</v>
       </c>
       <c r="R4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="S4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="T4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="U4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="V4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="W4" t="n">
-        <v>572.1502327909776</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="X4" t="n">
-        <v>414.1351605914492</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.1000017837263</v>
+        <v>200.5932925976329</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1169.346020127204</v>
+        <v>1040.623268675096</v>
       </c>
       <c r="C5" t="n">
-        <v>787.412261460011</v>
+        <v>658.6895100079034</v>
       </c>
       <c r="D5" t="n">
-        <v>414.5882966872346</v>
+        <v>285.865545235127</v>
       </c>
       <c r="E5" t="n">
-        <v>414.5882966872346</v>
+        <v>285.865545235127</v>
       </c>
       <c r="F5" t="n">
         <v>224.9717688416571</v>
@@ -4562,55 +4562,55 @@
         <v>212.9081863362491</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J5" t="n">
-        <v>40.09098754504512</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K5" t="n">
-        <v>257.4997446110819</v>
+        <v>352.2299038626336</v>
       </c>
       <c r="L5" t="n">
-        <v>605.3851176960281</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M5" t="n">
-        <v>998.624283949116</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636832</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109666</v>
+        <v>1776.690386361217</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.117123565719</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748109</v>
+        <v>1913.91109074811</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.911090748109</v>
+        <v>1913.91109074811</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.911090748109</v>
+        <v>1689.552144479121</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.911090748109</v>
+        <v>1434.666808193115</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.911090748109</v>
+        <v>1434.666808193115</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.37616060571</v>
+        <v>1434.666808193115</v>
       </c>
       <c r="X5" t="n">
-        <v>1169.346020127204</v>
+        <v>1434.666808193115</v>
       </c>
       <c r="Y5" t="n">
-        <v>1169.346020127204</v>
+        <v>1434.666808193115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790.6752480703738</v>
+        <v>517.1428130104601</v>
       </c>
       <c r="C6" t="n">
-        <v>628.9715753113285</v>
+        <v>355.4391402514149</v>
       </c>
       <c r="D6" t="n">
-        <v>490.1329383015405</v>
+        <v>355.4391402514149</v>
       </c>
       <c r="E6" t="n">
-        <v>343.1049283584117</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="F6" t="n">
         <v>208.4111303082861</v>
@@ -4641,55 +4641,55 @@
         <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J6" t="n">
         <v>100.3451340781513</v>
       </c>
       <c r="K6" t="n">
-        <v>329.8356866383399</v>
+        <v>329.83568663834</v>
       </c>
       <c r="L6" t="n">
-        <v>329.8356866383399</v>
+        <v>329.83568663834</v>
       </c>
       <c r="M6" t="n">
-        <v>814.8690401485663</v>
+        <v>814.8690401485665</v>
       </c>
       <c r="N6" t="n">
-        <v>1310.253507192408</v>
+        <v>1152.481877406814</v>
       </c>
       <c r="O6" t="n">
-        <v>1702.453457976559</v>
+        <v>1544.681828190965</v>
       </c>
       <c r="P6" t="n">
-        <v>2004.549377252256</v>
+        <v>1846.777747466662</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R6" t="n">
-        <v>2004.549377252256</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="S6" t="n">
-        <v>2004.549377252256</v>
+        <v>1943.891957818408</v>
       </c>
       <c r="T6" t="n">
-        <v>2004.549377252256</v>
+        <v>1755.206853984394</v>
       </c>
       <c r="U6" t="n">
-        <v>1810.244496642617</v>
+        <v>1536.712061582704</v>
       </c>
       <c r="V6" t="n">
-        <v>1581.848874090951</v>
+        <v>1308.316439031038</v>
       </c>
       <c r="W6" t="n">
-        <v>1340.533005324261</v>
+        <v>1067.000570264348</v>
       </c>
       <c r="X6" t="n">
-        <v>1142.616017202056</v>
+        <v>869.0835821421423</v>
       </c>
       <c r="Y6" t="n">
-        <v>950.0946908516346</v>
+        <v>676.5622557917211</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.09098754504512</v>
+        <v>344.5806567579492</v>
       </c>
       <c r="C7" t="n">
-        <v>40.09098754504512</v>
+        <v>344.5806567579492</v>
       </c>
       <c r="D7" t="n">
-        <v>40.09098754504512</v>
+        <v>344.5806567579492</v>
       </c>
       <c r="E7" t="n">
-        <v>40.09098754504512</v>
+        <v>192.571642519268</v>
       </c>
       <c r="F7" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="G7" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="H7" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504512</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K7" t="n">
         <v>73.69517528968854</v>
@@ -4750,25 +4750,25 @@
         <v>572.1502327909776</v>
       </c>
       <c r="S7" t="n">
-        <v>572.1502327909776</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="T7" t="n">
-        <v>572.1502327909776</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="U7" t="n">
-        <v>484.3816606710024</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="V7" t="n">
-        <v>223.646356229425</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="W7" t="n">
-        <v>223.646356229425</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="X7" t="n">
-        <v>223.646356229425</v>
+        <v>358.4404701946652</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.646356229425</v>
+        <v>358.4404701946652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1047.7735472835</v>
+        <v>1222.989123613633</v>
       </c>
       <c r="C8" t="n">
-        <v>665.839788616307</v>
+        <v>841.0553649464407</v>
       </c>
       <c r="D8" t="n">
-        <v>458.984345149926</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X8" t="n">
-        <v>1441.315402707662</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y8" t="n">
-        <v>1047.7735472835</v>
+        <v>1617.032663131652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>821.3991591499413</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>659.695486390896</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
         <v>110.4065414111382</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1840.968407722185</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1612.572785170519</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1371.256916403829</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>980.8186019312022</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.5049110754221</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="C10" t="n">
-        <v>194.5049110754221</v>
+        <v>362.9530189720304</v>
       </c>
       <c r="D10" t="n">
-        <v>194.5049110754221</v>
+        <v>362.9530189720304</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5049110754221</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>455.2402155169995</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>455.2402155169995</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>455.2402155169995</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="U10" t="n">
-        <v>455.2402155169995</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="V10" t="n">
-        <v>194.5049110754221</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="W10" t="n">
-        <v>194.5049110754221</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="X10" t="n">
-        <v>194.5049110754221</v>
+        <v>532.5689885103501</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.5049110754221</v>
+        <v>532.5689885103501</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1421.498088293251</v>
+        <v>1165.290834650945</v>
       </c>
       <c r="C11" t="n">
-        <v>1154.140254381825</v>
+        <v>1165.290834650945</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.140254381825</v>
+        <v>907.0427946339346</v>
       </c>
       <c r="E11" t="n">
-        <v>873.9304592436981</v>
+        <v>626.8329994958076</v>
       </c>
       <c r="F11" t="n">
-        <v>574.3551933096348</v>
+        <v>626.8329994958076</v>
       </c>
       <c r="G11" t="n">
-        <v>272.8271315195893</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>107.0595880588375</v>
       </c>
       <c r="I11" t="n">
         <v>48.81831402339997</v>
       </c>
       <c r="J11" t="n">
-        <v>120.8168582962056</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K11" t="n">
-        <v>360.9572303409884</v>
+        <v>585.5489580472417</v>
       </c>
       <c r="L11" t="n">
-        <v>708.8426034259346</v>
+        <v>933.4343311321879</v>
       </c>
       <c r="M11" t="n">
-        <v>1102.081769679022</v>
+        <v>1326.673497385276</v>
       </c>
       <c r="N11" t="n">
-        <v>1565.268959597908</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O11" t="n">
-        <v>1870.273544070742</v>
+        <v>2010.009440545825</v>
       </c>
       <c r="P11" t="n">
-        <v>2210.726304379922</v>
+        <v>2238.166337001879</v>
       </c>
       <c r="Q11" t="n">
         <v>2417.454421919586</v>
@@ -5066,25 +5066,25 @@
         <v>2440.915701169999</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.915701169999</v>
+        <v>2368.262650556119</v>
       </c>
       <c r="T11" t="n">
-        <v>2331.132679656776</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.823268126536</v>
+        <v>2182.575019870862</v>
       </c>
       <c r="V11" t="n">
-        <v>1968.419918778244</v>
+        <v>1960.17167052257</v>
       </c>
       <c r="W11" t="n">
-        <v>1968.419918778244</v>
+        <v>1712.212665135938</v>
       </c>
       <c r="X11" t="n">
-        <v>1700.965703055504</v>
+        <v>1444.758449413197</v>
       </c>
       <c r="Y11" t="n">
-        <v>1700.965703055504</v>
+        <v>1444.758449413197</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>219.3186827076488</v>
       </c>
       <c r="G12" t="n">
-        <v>90.59018273093335</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H12" t="n">
-        <v>90.59018273093335</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I12" t="n">
         <v>48.81831402339997</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81831402339997</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K12" t="n">
-        <v>226.7273565210923</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
-        <v>592.5492016912079</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1077.582555201434</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.848201324556</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.048152108707</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.144071384404</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.915701169999</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.459810906694</v>
+        <v>346.4598109066937</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4197661241407</v>
+        <v>291.4197661241404</v>
       </c>
       <c r="D13" t="n">
-        <v>252.9237977076698</v>
+        <v>252.9237977076696</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247551</v>
+        <v>215.4907082247548</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062985</v>
+        <v>177.5859780062984</v>
       </c>
       <c r="G13" t="n">
-        <v>123.242154129915</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H13" t="n">
         <v>78.44543366495506</v>
@@ -5197,22 +5197,22 @@
         <v>48.81831402339997</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2520783385571</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1521299363271</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897133</v>
+        <v>461.0550731897136</v>
       </c>
       <c r="M13" t="n">
-        <v>691.3444431704417</v>
+        <v>691.344443170442</v>
       </c>
       <c r="N13" t="n">
-        <v>922.0626487731688</v>
+        <v>922.0626487731693</v>
       </c>
       <c r="O13" t="n">
-        <v>1132.822159121985</v>
+        <v>1132.822159121986</v>
       </c>
       <c r="P13" t="n">
         <v>1308.08650670325</v>
@@ -5230,19 +5230,19 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.3148846487671</v>
+        <v>957.3148846487672</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629561</v>
+        <v>811.1555049629562</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361216</v>
+        <v>639.5750282361214</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872639</v>
+        <v>522.8984888872636</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.4392548353075</v>
+        <v>415.4392548353071</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1415.734620443986</v>
+        <v>1432.64866856237</v>
       </c>
       <c r="C14" t="n">
-        <v>1148.37678653256</v>
+        <v>1165.290834650944</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.37678653256</v>
+        <v>907.0427946339346</v>
       </c>
       <c r="E14" t="n">
-        <v>868.1669913944334</v>
+        <v>626.8329994958075</v>
       </c>
       <c r="F14" t="n">
-        <v>568.5917254603701</v>
+        <v>626.8329994958075</v>
       </c>
       <c r="G14" t="n">
-        <v>267.0636636703243</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81831402339997</v>
+        <v>107.0595880588375</v>
       </c>
       <c r="I14" t="n">
         <v>48.81831402339997</v>
@@ -5279,25 +5279,25 @@
         <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>473.253094194115</v>
+        <v>581.5702046756979</v>
       </c>
       <c r="L14" t="n">
-        <v>821.1384672790613</v>
+        <v>1041.751441613771</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.377633532149</v>
+        <v>1434.990607866859</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.708992219865</v>
+        <v>1813.321966554574</v>
       </c>
       <c r="O14" t="n">
-        <v>1897.713576692699</v>
+        <v>2118.326551027408</v>
       </c>
       <c r="P14" t="n">
-        <v>2210.726304379922</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q14" t="n">
-        <v>2417.454421919586</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R14" t="n">
         <v>2440.915701169999</v>
@@ -5306,22 +5306,22 @@
         <v>2368.262650556119</v>
       </c>
       <c r="T14" t="n">
-        <v>2258.479629042897</v>
+        <v>2368.262650556119</v>
       </c>
       <c r="U14" t="n">
-        <v>2222.127171261267</v>
+        <v>2368.262650556119</v>
       </c>
       <c r="V14" t="n">
-        <v>2222.127171261267</v>
+        <v>2227.027820340139</v>
       </c>
       <c r="W14" t="n">
-        <v>1974.168165874635</v>
+        <v>1979.068814953506</v>
       </c>
       <c r="X14" t="n">
-        <v>1974.168165874635</v>
+        <v>1711.614599230766</v>
       </c>
       <c r="Y14" t="n">
-        <v>1695.202235206239</v>
+        <v>1432.64866856237</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697364</v>
       </c>
       <c r="C15" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106911</v>
       </c>
       <c r="D15" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009032</v>
       </c>
       <c r="E15" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577744</v>
       </c>
       <c r="F15" t="n">
-        <v>345.8669567633564</v>
+        <v>219.3186827076488</v>
       </c>
       <c r="G15" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H15" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I15" t="n">
         <v>48.81831402339997</v>
@@ -5361,46 +5361,46 @@
         <v>278.3088665835886</v>
       </c>
       <c r="L15" t="n">
-        <v>592.5492016912079</v>
+        <v>644.1307117537042</v>
       </c>
       <c r="M15" t="n">
-        <v>1077.582555201434</v>
+        <v>1129.164065263931</v>
       </c>
       <c r="N15" t="n">
-        <v>1588.848201324556</v>
+        <v>1640.429711387053</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.048152108707</v>
+        <v>2032.629662171204</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.144071384404</v>
+        <v>2334.725581446901</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U15" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V15" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W15" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y15" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509974</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066935</v>
+        <v>346.4598109066938</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241404</v>
+        <v>291.4197661241405</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9237977076695</v>
+        <v>252.9237977076697</v>
       </c>
       <c r="E16" t="n">
-        <v>215.4907082247549</v>
+        <v>215.490708224755</v>
       </c>
       <c r="F16" t="n">
         <v>177.5859780062985</v>
@@ -5428,7 +5428,7 @@
         <v>123.2421541299149</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495512</v>
+        <v>78.44543366495503</v>
       </c>
       <c r="I16" t="n">
         <v>48.81831402339997</v>
@@ -5437,16 +5437,16 @@
         <v>102.2520783385573</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1521299363275</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L16" t="n">
-        <v>461.0550731897135</v>
+        <v>461.0550731897134</v>
       </c>
       <c r="M16" t="n">
-        <v>691.344443170442</v>
+        <v>691.3444431704417</v>
       </c>
       <c r="N16" t="n">
-        <v>922.062648773169</v>
+        <v>922.0626487731687</v>
       </c>
       <c r="O16" t="n">
         <v>1132.822159121985</v>
@@ -5458,28 +5458,28 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>1347.666065673002</v>
+        <v>1347.666065673001</v>
       </c>
       <c r="S16" t="n">
-        <v>1248.532227832456</v>
+        <v>1248.532227832455</v>
       </c>
       <c r="T16" t="n">
         <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>957.314884648767</v>
+        <v>957.3148846487669</v>
       </c>
       <c r="V16" t="n">
-        <v>811.155504962956</v>
+        <v>811.1555049629559</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361214</v>
+        <v>639.5750282361215</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872635</v>
+        <v>522.8984888872636</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.4392548353071</v>
+        <v>415.4392548353072</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1102.316769822194</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506589</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580074</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694194</v>
+        <v>446.8685027694196</v>
       </c>
       <c r="G17" t="n">
         <v>206.2020523248491</v>
@@ -5510,28 +5510,28 @@
         <v>48.81831402339997</v>
       </c>
       <c r="I17" t="n">
-        <v>51.38650662096782</v>
+        <v>51.38650662096785</v>
       </c>
       <c r="J17" t="n">
-        <v>198.6676228211018</v>
+        <v>123.3850508937735</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8079948658846</v>
+        <v>363.5254229385563</v>
       </c>
       <c r="L17" t="n">
-        <v>786.6933679508309</v>
+        <v>711.4107960235026</v>
       </c>
       <c r="M17" t="n">
-        <v>1179.932534203919</v>
+        <v>1276.596291409418</v>
       </c>
       <c r="N17" t="n">
-        <v>1558.263892891634</v>
+        <v>1654.927650097133</v>
       </c>
       <c r="O17" t="n">
-        <v>1863.268477364468</v>
+        <v>1959.932234569967</v>
       </c>
       <c r="P17" t="n">
-        <v>2263.371702953349</v>
+        <v>2188.08913102602</v>
       </c>
       <c r="Q17" t="n">
         <v>2357.803956639886</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697364</v>
       </c>
       <c r="C18" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106911</v>
       </c>
       <c r="D18" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009032</v>
       </c>
       <c r="E18" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577744</v>
       </c>
       <c r="F18" t="n">
-        <v>345.8669567633564</v>
+        <v>219.3186827076488</v>
       </c>
       <c r="G18" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H18" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I18" t="n">
         <v>48.81831402339997</v>
       </c>
       <c r="J18" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K18" t="n">
-        <v>338.5630131166948</v>
+        <v>278.3088665835886</v>
       </c>
       <c r="L18" t="n">
-        <v>704.3848582868104</v>
+        <v>644.1307117537042</v>
       </c>
       <c r="M18" t="n">
-        <v>1189.418211797037</v>
+        <v>1129.164065263931</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.683857920159</v>
+        <v>1640.429711387053</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.88380870431</v>
+        <v>2032.629662171204</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.979727980007</v>
+        <v>2334.725581446901</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.915701169999</v>
@@ -5622,22 +5622,22 @@
         <v>2228.331945277685</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U18" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V18" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W18" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y18" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509974</v>
       </c>
     </row>
     <row r="19">
@@ -5698,25 +5698,25 @@
         <v>580.8775592693326</v>
       </c>
       <c r="S19" t="n">
-        <v>524.8594515308354</v>
+        <v>542.6053327742617</v>
       </c>
       <c r="T19" t="n">
-        <v>467.1180344477557</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U19" t="n">
-        <v>355.3653310380972</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V19" t="n">
-        <v>270.0675626977614</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W19" t="n">
-        <v>159.3486973164022</v>
+        <v>177.0945785598286</v>
       </c>
       <c r="X19" t="n">
-        <v>103.5337693130195</v>
+        <v>121.2796505564459</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.9361466065382</v>
+        <v>74.68202784996465</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C20" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822193</v>
       </c>
       <c r="D20" t="n">
-        <v>904.930341150659</v>
+        <v>904.9303411506587</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580075</v>
+        <v>685.5821573580072</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694195</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G20" t="n">
         <v>206.2020523248491</v>
@@ -5747,28 +5747,28 @@
         <v>48.81831402339997</v>
       </c>
       <c r="I20" t="n">
-        <v>51.38650662096782</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J20" t="n">
-        <v>198.6676228211018</v>
+        <v>292.7631874290325</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8079948658846</v>
+        <v>532.9035594738153</v>
       </c>
       <c r="L20" t="n">
-        <v>786.6933679508309</v>
+        <v>880.7889325587616</v>
       </c>
       <c r="M20" t="n">
-        <v>1179.932534203919</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N20" t="n">
-        <v>1558.263892891634</v>
+        <v>1652.359457499565</v>
       </c>
       <c r="O20" t="n">
-        <v>1863.268477364468</v>
+        <v>1957.364041972399</v>
       </c>
       <c r="P20" t="n">
-        <v>2091.425373820522</v>
+        <v>2185.520938428453</v>
       </c>
       <c r="Q20" t="n">
         <v>2357.803956639886</v>
@@ -5786,7 +5786,7 @@
         <v>2300.755051549083</v>
       </c>
       <c r="V20" t="n">
-        <v>2139.213313546266</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W20" t="n">
         <v>1952.115919505108</v>
@@ -5795,7 +5795,7 @@
         <v>1745.523315127843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>48.81831402339997</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81831402339997</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>226.7273565210923</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L21" t="n">
-        <v>592.5492016912079</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M21" t="n">
-        <v>1077.582555201434</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N21" t="n">
-        <v>1588.848201324556</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.048152108707</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.144071384404</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.915701169999</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81831402339997</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81831402339997</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81831402339997</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81831402339997</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81831402339997</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="G22" t="n">
         <v>48.81831402339997</v>
@@ -5941,19 +5941,19 @@
         <v>484.8639156911821</v>
       </c>
       <c r="U22" t="n">
-        <v>355.3653310380972</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V22" t="n">
-        <v>270.0675626977614</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W22" t="n">
-        <v>159.3486973164022</v>
+        <v>177.0945785598286</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130195</v>
+        <v>121.2796505564459</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.9361466065382</v>
+        <v>74.68202784996465</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C23" t="n">
-        <v>1102.316769822193</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506587</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E23" t="n">
-        <v>685.5821573580072</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F23" t="n">
         <v>446.8685027694194</v>
@@ -5981,31 +5981,31 @@
         <v>206.2020523248491</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I23" t="n">
-        <v>51.38650662096783</v>
+        <v>51.38650662096785</v>
       </c>
       <c r="J23" t="n">
         <v>123.3850508937735</v>
       </c>
       <c r="K23" t="n">
-        <v>535.4717520713832</v>
+        <v>363.5254229385563</v>
       </c>
       <c r="L23" t="n">
-        <v>958.6396970836583</v>
+        <v>711.4107960235026</v>
       </c>
       <c r="M23" t="n">
-        <v>1351.878863336746</v>
+        <v>1104.64996227659</v>
       </c>
       <c r="N23" t="n">
-        <v>1730.210222024462</v>
+        <v>1482.981320964306</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.214806497296</v>
+        <v>1787.98590543714</v>
       </c>
       <c r="P23" t="n">
-        <v>2263.371702953349</v>
+        <v>2091.425373820522</v>
       </c>
       <c r="Q23" t="n">
         <v>2357.803956639886</v>
@@ -6017,10 +6017,10 @@
         <v>2429.124261901594</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V23" t="n">
         <v>2139.213313546265</v>
@@ -6032,7 +6032,7 @@
         <v>1745.523315127843</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.418995804922</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697364</v>
       </c>
       <c r="C24" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106911</v>
       </c>
       <c r="D24" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009032</v>
       </c>
       <c r="E24" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577744</v>
       </c>
       <c r="F24" t="n">
-        <v>345.8669567633564</v>
+        <v>219.3186827076488</v>
       </c>
       <c r="G24" t="n">
-        <v>217.1384567866409</v>
+        <v>90.59018273093335</v>
       </c>
       <c r="H24" t="n">
-        <v>117.200599333339</v>
+        <v>90.59018273093335</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J24" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K24" t="n">
-        <v>338.5630131166948</v>
+        <v>278.3088665835886</v>
       </c>
       <c r="L24" t="n">
-        <v>704.3848582868104</v>
+        <v>644.1307117537042</v>
       </c>
       <c r="M24" t="n">
-        <v>1189.418211797037</v>
+        <v>1129.164065263931</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.683857920159</v>
+        <v>1640.429711387053</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.88380870431</v>
+        <v>2032.629662171204</v>
       </c>
       <c r="P24" t="n">
-        <v>2394.979727980007</v>
+        <v>2334.725581446901</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S24" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V24" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W24" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509974</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81831402339998</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81831402339998</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81831402339998</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81831402339998</v>
+        <v>66.56419526682645</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81831402339998</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K25" t="n">
         <v>82.42250176804339</v>
@@ -6169,28 +6169,28 @@
         <v>580.8775592693326</v>
       </c>
       <c r="R25" t="n">
-        <v>563.1316780259062</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="S25" t="n">
-        <v>524.8594515308354</v>
+        <v>542.6053327742617</v>
       </c>
       <c r="T25" t="n">
-        <v>467.1180344477557</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U25" t="n">
-        <v>355.3653310380972</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V25" t="n">
-        <v>270.0675626977614</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W25" t="n">
-        <v>159.3486973164022</v>
+        <v>177.0945785598286</v>
       </c>
       <c r="X25" t="n">
-        <v>103.5337693130195</v>
+        <v>121.2796505564459</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.93614660653821</v>
+        <v>74.68202784996465</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1372.404442476375</v>
+        <v>1620.363447863007</v>
       </c>
       <c r="C26" t="n">
-        <v>1105.046608564949</v>
+        <v>1353.00561395158</v>
       </c>
       <c r="D26" t="n">
-        <v>846.7985685479389</v>
+        <v>1217.627747385038</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8426863128482</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F26" t="n">
         <v>637.8426863128482</v>
@@ -6221,28 +6221,28 @@
         <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J26" t="n">
-        <v>194.6777111137739</v>
+        <v>244.1224089663729</v>
       </c>
       <c r="K26" t="n">
-        <v>547.1139470116833</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.295183949756</v>
+        <v>1007.295183949755</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.830214055971</v>
+        <v>1512.83021405597</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596813</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922774</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231954</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q26" t="n">
         <v>2967.938762771617</v>
@@ -6251,25 +6251,25 @@
         <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.746991408151</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2808.963969894928</v>
+        <v>2808.963969894927</v>
       </c>
       <c r="U26" t="n">
         <v>2668.654558364688</v>
       </c>
       <c r="V26" t="n">
-        <v>2446.251209016396</v>
+        <v>2446.251209016395</v>
       </c>
       <c r="W26" t="n">
-        <v>2198.292203629764</v>
+        <v>2446.251209016395</v>
       </c>
       <c r="X26" t="n">
-        <v>1930.837987907023</v>
+        <v>2178.796993293655</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.872057238628</v>
+        <v>1899.831062625259</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>924.4281438823803</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C27" t="n">
-        <v>762.724471123335</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D27" t="n">
-        <v>623.885834113547</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E27" t="n">
-        <v>476.8578241704183</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F27" t="n">
-        <v>342.1640261202926</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G27" t="n">
         <v>228.1481436036815</v>
@@ -6300,7 +6300,7 @@
         <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J27" t="n">
         <v>120.0821473735467</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2503.976775677588</v>
+        <v>2518.689393137692</v>
       </c>
       <c r="S27" t="n">
-        <v>2351.177288690328</v>
+        <v>2365.889906150433</v>
       </c>
       <c r="T27" t="n">
-        <v>2162.492184856314</v>
+        <v>2177.204802316418</v>
       </c>
       <c r="U27" t="n">
-        <v>1943.997392454624</v>
+        <v>1958.710009914728</v>
       </c>
       <c r="V27" t="n">
-        <v>1715.601769902958</v>
+        <v>1730.314387363062</v>
       </c>
       <c r="W27" t="n">
-        <v>1474.285901136268</v>
+        <v>1488.998518596372</v>
       </c>
       <c r="X27" t="n">
-        <v>1276.368913014062</v>
+        <v>1291.081530474167</v>
       </c>
       <c r="Y27" t="n">
-        <v>1083.847586663641</v>
+        <v>1098.560204123746</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.469497723734</v>
+        <v>357.4694977237346</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411807</v>
+        <v>302.4294529411812</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247099</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417952</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F28" t="n">
-        <v>188.5956648233387</v>
+        <v>188.595664823339</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469551</v>
+        <v>134.2518409469554</v>
       </c>
       <c r="H28" t="n">
         <v>89.45512048199566</v>
       </c>
       <c r="I28" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J28" t="n">
-        <v>113.2617651555977</v>
+        <v>113.2617651555978</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533677</v>
+        <v>259.1618167533679</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067534</v>
+        <v>472.0647600067541</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874817</v>
+        <v>702.3541299874826</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902087</v>
+        <v>933.0723355902096</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
         <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
@@ -6415,19 +6415,19 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658074</v>
+        <v>968.3245714658075</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799963</v>
+        <v>822.1651917799968</v>
       </c>
       <c r="W28" t="n">
-        <v>650.5847150531619</v>
+        <v>650.5847150531624</v>
       </c>
       <c r="X28" t="n">
-        <v>533.908175704304</v>
+        <v>533.9081757043044</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523475</v>
+        <v>426.448941652348</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1484.985581296465</v>
+        <v>1651.872057238627</v>
       </c>
       <c r="C29" t="n">
-        <v>1217.627747385038</v>
+        <v>1384.514223327201</v>
       </c>
       <c r="D29" t="n">
-        <v>1217.627747385038</v>
+        <v>1126.266183310191</v>
       </c>
       <c r="E29" t="n">
-        <v>937.4179522469115</v>
+        <v>846.0563881720641</v>
       </c>
       <c r="F29" t="n">
-        <v>637.8426863128482</v>
+        <v>579.6014122774104</v>
       </c>
       <c r="G29" t="n">
-        <v>336.3146245228025</v>
+        <v>278.0733504873649</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0692748758782</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="I29" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J29" t="n">
-        <v>244.1224089663729</v>
+        <v>194.6777111137729</v>
       </c>
       <c r="K29" t="n">
-        <v>596.5586448642823</v>
+        <v>547.1139470116824</v>
       </c>
       <c r="L29" t="n">
-        <v>1056.739881802355</v>
+        <v>1007.295183949755</v>
       </c>
       <c r="M29" t="n">
-        <v>1562.27491190857</v>
+        <v>1512.83021405597</v>
       </c>
       <c r="N29" t="n">
-        <v>2052.902134449412</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O29" t="n">
-        <v>2470.202582775373</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P29" t="n">
-        <v>2784.671924482366</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q29" t="n">
-        <v>2991.40004202203</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R29" t="n">
         <v>2991.40004202203</v>
@@ -6491,22 +6491,22 @@
         <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2918.74699140815</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2778.437579877911</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2556.034230529618</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2308.075225142985</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>2043.419126727113</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y29" t="n">
-        <v>1764.453196058717</v>
+        <v>1651.872057238627</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C30" t="n">
-        <v>777.4370885834393</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D30" t="n">
-        <v>638.5984515736513</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E30" t="n">
-        <v>491.5704416305226</v>
+        <v>476.8578241704183</v>
       </c>
       <c r="F30" t="n">
-        <v>356.8766435803969</v>
+        <v>342.1640261202926</v>
       </c>
       <c r="G30" t="n">
         <v>228.1481436036815</v>
@@ -6537,7 +6537,7 @@
         <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J30" t="n">
         <v>120.0821473735467</v>
@@ -6564,28 +6564,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R30" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T30" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U30" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V30" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W30" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y30" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237344</v>
+        <v>357.4694977237345</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4294529411811</v>
+        <v>302.4294529411814</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247104</v>
+        <v>263.9334845247105</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417956</v>
+        <v>226.5003950417957</v>
       </c>
       <c r="F31" t="n">
         <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
-        <v>134.2518409469556</v>
+        <v>134.2518409469554</v>
       </c>
       <c r="H31" t="n">
         <v>89.45512048199566</v>
       </c>
       <c r="I31" t="n">
-        <v>59.8280008404406</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J31" t="n">
         <v>113.2617651555979</v>
       </c>
       <c r="K31" t="n">
-        <v>259.161816753368</v>
+        <v>259.1618167533679</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067539</v>
+        <v>472.0647600067541</v>
       </c>
       <c r="M31" t="n">
-        <v>702.3541299874826</v>
+        <v>702.3541299874823</v>
       </c>
       <c r="N31" t="n">
         <v>933.0723355902096</v>
@@ -6637,7 +6637,7 @@
         <v>1143.831845939026</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.096193520291</v>
+        <v>1319.09619352029</v>
       </c>
       <c r="Q31" t="n">
         <v>1393.621609119898</v>
@@ -6677,46 +6677,46 @@
         <v>1524.03932831595</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.718783610433</v>
+        <v>1287.718783610434</v>
       </c>
       <c r="D32" t="n">
-        <v>1060.508032799333</v>
+        <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671168</v>
+        <v>811.3355268671176</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389635</v>
+        <v>542.7975501389644</v>
       </c>
       <c r="G32" t="n">
-        <v>272.3067775548279</v>
+        <v>272.3067775548288</v>
       </c>
       <c r="H32" t="n">
-        <v>85.098717113814</v>
+        <v>85.09871711381395</v>
       </c>
       <c r="I32" t="n">
         <v>57.89473228428648</v>
       </c>
       <c r="J32" t="n">
-        <v>272.6087875609313</v>
+        <v>129.8932765570922</v>
       </c>
       <c r="K32" t="n">
-        <v>522.9440111566685</v>
+        <v>512.7491596057141</v>
       </c>
       <c r="L32" t="n">
-        <v>1013.544895245454</v>
+        <v>1003.3500436945</v>
       </c>
       <c r="M32" t="n">
-        <v>1549.499572502381</v>
+        <v>1539.304720951427</v>
       </c>
       <c r="N32" t="n">
-        <v>2070.546442193936</v>
+        <v>2060.351590642982</v>
       </c>
       <c r="O32" t="n">
-        <v>2375.55102666677</v>
+        <v>2508.071686119655</v>
       </c>
       <c r="P32" t="n">
-        <v>2746.423434126662</v>
+        <v>2736.228582575708</v>
       </c>
       <c r="Q32" t="n">
         <v>2840.855687813199</v>
@@ -6728,7 +6728,7 @@
         <v>2853.120852806355</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499042</v>
+        <v>2774.375120499043</v>
       </c>
       <c r="U32" t="n">
         <v>2665.102998174713</v>
@@ -6743,7 +6743,7 @@
         <v>2020.398295334778</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.469653872292</v>
+        <v>1772.469653872293</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.2074927863306</v>
+        <v>922.4948753262258</v>
       </c>
       <c r="C33" t="n">
-        <v>775.5038200272853</v>
+        <v>760.7912025671806</v>
       </c>
       <c r="D33" t="n">
-        <v>636.6651830174974</v>
+        <v>621.9525655573926</v>
       </c>
       <c r="E33" t="n">
-        <v>489.6371730743685</v>
+        <v>474.9245556142639</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9433750242429</v>
+        <v>340.2307575641382</v>
       </c>
       <c r="G33" t="n">
-        <v>226.2148750475275</v>
+        <v>211.5022575874228</v>
       </c>
       <c r="H33" t="n">
         <v>126.2770175942255</v>
@@ -6807,22 +6807,22 @@
         <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.271533760264</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1956.776741358574</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1728.381118806908</v>
+        <v>1713.668501346803</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.065250040218</v>
+        <v>1472.352632580113</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.148261918013</v>
+        <v>1274.435644457908</v>
       </c>
       <c r="Y33" t="n">
-        <v>1096.626935567592</v>
+        <v>1081.914318107487</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6853742905649</v>
+        <v>139.6853742905645</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139216</v>
+        <v>115.6826187139214</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033608</v>
+        <v>108.2239395033606</v>
       </c>
       <c r="E34" t="n">
-        <v>101.8281392263561</v>
+        <v>101.828139226356</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380972</v>
+        <v>94.96069821380961</v>
       </c>
       <c r="G34" t="n">
-        <v>71.6541635433362</v>
+        <v>71.65416354333614</v>
       </c>
       <c r="H34" t="n">
         <v>57.89473228428648</v>
@@ -6862,46 +6862,46 @@
         <v>91.49892002892989</v>
       </c>
       <c r="L34" t="n">
-        <v>192.1059994291894</v>
+        <v>334.8215104330285</v>
       </c>
       <c r="M34" t="n">
-        <v>452.8150165606302</v>
+        <v>595.5305275644694</v>
       </c>
       <c r="N34" t="n">
-        <v>713.9528693140696</v>
+        <v>735.0697526097091</v>
       </c>
       <c r="O34" t="n">
-        <v>833.5333991053998</v>
+        <v>833.5333991053988</v>
       </c>
       <c r="P34" t="n">
-        <v>896.5018828335376</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.5018828335376</v>
+        <v>896.5018828335366</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095923</v>
+        <v>892.5933154095914</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749563</v>
+        <v>824.4967667749554</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523115</v>
+        <v>736.9310275523108</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030879</v>
+        <v>595.3540020030872</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231869</v>
+        <v>480.2319115231863</v>
       </c>
       <c r="W34" t="n">
-        <v>339.6887240022625</v>
+        <v>339.6887240022619</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593147</v>
+        <v>254.0494738593142</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.6275290132683</v>
+        <v>177.6275290132678</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6911,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791955</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479469</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927297</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776759</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.87124461848</v>
+        <v>1927.439983488862</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091313</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215968</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W35" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
         <v>1813.858934499875</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>64.80580731170521</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479473</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K38" t="n">
-        <v>403.41534659273</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776763</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421797</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500836</v>
+        <v>58.54756592704302</v>
       </c>
       <c r="E40" t="n">
-        <v>81.02642599070933</v>
+        <v>74.031305562744</v>
       </c>
       <c r="F40" t="n">
-        <v>96.04791054150586</v>
+        <v>89.05279011354052</v>
       </c>
       <c r="G40" t="n">
-        <v>94.93529841688813</v>
+        <v>87.9401779889228</v>
       </c>
       <c r="H40" t="n">
         <v>96.20682289912145</v>
@@ -7363,19 +7363,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G41" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259237</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>692.1751396617389</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.060512746685</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.631037687489</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
         <v>2460.60146441775</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,16 +7512,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
         <v>1721.587060884707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749095</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670348</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K43" t="n">
-        <v>130.9236227683829</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686424</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962442</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458446</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433853</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478544</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614935</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N44" t="n">
-        <v>1482.695488705424</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.16784766929</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
         <v>219.4208171253267</v>
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500833</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670347</v>
+        <v>74.03130556274442</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670347</v>
+        <v>89.05279011354092</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>87.94017798892317</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912179</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912179</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912179</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437652</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440247</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716265</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212268</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169165</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562742</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>516.9916253794852</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761173</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420721</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972077</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>398.4278090912565</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.0374059107913</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,16 +8058,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>245.132570421258</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>139.0839679578473</v>
+        <v>607.8524853807725</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>398.4278090912555</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>418.037405910792</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8304,7 +8304,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>607.1034916170431</v>
+        <v>447.7382090053323</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>291.7022726996892</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640756</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9009,7 +9009,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>429.989913477834</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>220.9979386399407</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.1351643640756</v>
+        <v>220.9979386399407</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>291.7022726996892</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640756</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.135164364076</v>
+        <v>220.9979386399407</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>51.9530281243108</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>63.76075433462336</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>102.9173842111243</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>80.35683394098909</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24446,13 +24446,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>121.6414717159633</v>
       </c>
       <c r="E26" t="n">
-        <v>70.54137377400613</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>32.78908713901551</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.770136133799201</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719008.720703957</v>
+        <v>719008.7207039573</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719008.720703957</v>
+        <v>719008.7207039573</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>575718.0453706364</v>
       </c>
       <c r="C2" t="n">
-        <v>575718.0453706366</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="D2" t="n">
-        <v>575718.0453706363</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="E2" t="n">
         <v>521916.3579363974</v>
       </c>
       <c r="F2" t="n">
-        <v>521916.3579363975</v>
+        <v>521916.3579363973</v>
       </c>
       <c r="G2" t="n">
-        <v>575718.0453706365</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="H2" t="n">
-        <v>575718.0453706366</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="I2" t="n">
-        <v>575718.0453706366</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="J2" t="n">
         <v>553800.9284138267</v>
       </c>
       <c r="K2" t="n">
-        <v>553800.9284138267</v>
+        <v>553800.9284138271</v>
       </c>
       <c r="L2" t="n">
-        <v>575718.0453706378</v>
+        <v>575718.0453706377</v>
       </c>
       <c r="M2" t="n">
-        <v>575718.0453706372</v>
+        <v>575718.0453706374</v>
       </c>
       <c r="N2" t="n">
-        <v>575718.0453706376</v>
+        <v>575718.045370637</v>
       </c>
       <c r="O2" t="n">
-        <v>575718.0453706374</v>
+        <v>575718.0453706373</v>
       </c>
       <c r="P2" t="n">
-        <v>575718.045370637</v>
+        <v>575718.0453706373</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382269</v>
+        <v>167942.650238227</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.64014497688</v>
+        <v>7506.640144976827</v>
       </c>
       <c r="E3" t="n">
         <v>116101.0852352527</v>
@@ -26390,19 +26390,19 @@
         <v>209669.0467558702</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669713</v>
+        <v>72783.92923669716</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.5866563178</v>
+        <v>17577.58665631775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095061</v>
+        <v>42541.7362209506</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214112.3419115256</v>
+        <v>214112.3419115255</v>
       </c>
       <c r="C4" t="n">
-        <v>214112.3419115256</v>
+        <v>214112.3419115255</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26491,13 +26491,13 @@
         <v>51703.28829805431</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284445</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284445</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="L5" t="n">
-        <v>56119.13824775646</v>
+        <v>56119.13824775647</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
+        <v>52802.81689264637</v>
+      </c>
+      <c r="P5" t="n">
         <v>52802.81689264636</v>
-      </c>
-      <c r="P5" t="n">
-        <v>52802.81689264637</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>129566.3026866496</v>
       </c>
       <c r="C6" t="n">
-        <v>297508.9529248768</v>
+        <v>297508.9529248767</v>
       </c>
       <c r="D6" t="n">
-        <v>294462.2634939244</v>
+        <v>294462.2634939246</v>
       </c>
       <c r="E6" t="n">
-        <v>198586.2225260499</v>
+        <v>198406.8835679358</v>
       </c>
       <c r="F6" t="n">
-        <v>314687.3077613027</v>
+        <v>314507.9688031884</v>
       </c>
       <c r="G6" t="n">
-        <v>274526.7939266403</v>
+        <v>274526.7939266402</v>
       </c>
       <c r="H6" t="n">
-        <v>322729.1901122569</v>
+        <v>322729.1901122566</v>
       </c>
       <c r="I6" t="n">
-        <v>322729.1901122569</v>
+        <v>322729.1901122566</v>
       </c>
       <c r="J6" t="n">
-        <v>106145.5917190273</v>
+        <v>106072.5346625047</v>
       </c>
       <c r="K6" t="n">
-        <v>315814.6384748976</v>
+        <v>315741.5814183753</v>
       </c>
       <c r="L6" t="n">
-        <v>247406.7988545508</v>
+        <v>247406.7988545506</v>
       </c>
       <c r="M6" t="n">
-        <v>306354.7913694616</v>
+        <v>306354.791369462</v>
       </c>
       <c r="N6" t="n">
-        <v>323932.3780257798</v>
+        <v>323932.3780257792</v>
       </c>
       <c r="O6" t="n">
-        <v>281390.6418048291</v>
+        <v>281390.6418048289</v>
       </c>
       <c r="P6" t="n">
-        <v>323932.3780257792</v>
+        <v>323932.3780257796</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.137344313064</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="C4" t="n">
-        <v>501.137344313064</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,13 +26808,13 @@
         <v>610.2289252924996</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2289252924998</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="J4" t="n">
-        <v>747.8500105055075</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055075</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="L4" t="n">
         <v>723.684153553581</v>
@@ -26823,13 +26823,13 @@
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618829</v>
+        <v>53.17717027618825</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587142</v>
+        <v>90.97991154587146</v>
       </c>
       <c r="M2" t="n">
-        <v>21.97198332039724</v>
+        <v>21.97198332039719</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618826</v>
+        <v>53.17717027618825</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.137344313064</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192634</v>
+        <v>24.16585695192617</v>
       </c>
       <c r="E4" t="n">
         <v>84.92572402750932</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260721</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618829</v>
+        <v>53.17717027618825</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.137344313064</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192634</v>
+        <v>24.16585695192617</v>
       </c>
       <c r="M4" t="n">
         <v>84.92572402750932</v>
@@ -27379,7 +27379,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>236.4050955296827</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>188.6061381358917</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>18.65241283395318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>151.389227651078</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>143.1328163347474</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27582,7 +27582,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>72.50501798604489</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>222.2893162158097</v>
+        <v>349.7248401533961</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,19 +27667,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -27743,13 +27743,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>91.22064687787741</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>23.94801267413058</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>167.9985996951872</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,10 +27780,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27822,16 +27822,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>197.4274507170156</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>164.3088360933314</v>
+        <v>100.5896412935006</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>169.1258094466651</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28056,19 +28056,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>30.37171059993472</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>189.7477959440642</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28111,10 +28111,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,16 +28123,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>85.7129608395656</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>85.71296083956591</v>
       </c>
       <c r="R11" t="n">
         <v>113.4301655082087</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>57.58432885831088</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.34431243638156</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28351,10 +28351,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>109.4112227086696</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>85.71296083956554</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>57.58432885831088</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.09636509914641</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28585,7 +28585,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="J17" t="n">
-        <v>76.04300194679632</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>76.04300194679624</v>
       </c>
       <c r="R17" t="n">
         <v>173.6831607402292</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>57.58432885831088</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>125.2827913151503</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.6831607402292</v>
+        <v>156.114738309237</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,7 +28770,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>156.1147383092371</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T19" t="n">
         <v>173.6831607402292</v>
@@ -28819,11 +28819,11 @@
         <v>173.6831607402292</v>
       </c>
       <c r="I20" t="n">
+        <v>171.0890268032919</v>
+      </c>
+      <c r="J20" t="n">
         <v>173.6831607402292</v>
       </c>
-      <c r="J20" t="n">
-        <v>76.04300194679632</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.6831607402292</v>
+        <v>78.63713588373338</v>
       </c>
       <c r="R20" t="n">
         <v>173.6831607402292</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>149.6621287148363</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -29013,7 +29013,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="U22" t="n">
-        <v>156.1147383092371</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V22" t="n">
         <v>173.6831607402292</v>
@@ -29062,25 +29062,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>76.04300194679638</v>
+      </c>
+      <c r="Q23" t="n">
         <v>173.6831607402292</v>
-      </c>
-      <c r="L23" t="n">
-        <v>76.04300194679689</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>173.6831607402292</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.34431243638156</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>66.09636509914596</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>133.3874259934884</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>130.4581411407735</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>173.6831607402292</v>
@@ -29296,13 +29296,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>63.48602626315923</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315841</v>
       </c>
       <c r="M26" t="n">
         <v>113.4301655082087</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29533,7 +29533,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315827</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
@@ -29551,13 +29551,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>87.18428813226285</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="J32" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>10.29782984944893</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="L32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="P32" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>10.29782984944841</v>
       </c>
       <c r="R32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550361</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="H34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -29934,16 +29934,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="M34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="N34" t="n">
-        <v>144.1570818220597</v>
+        <v>21.33018514711047</v>
       </c>
       <c r="O34" t="n">
-        <v>21.33018514711159</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="U34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="V34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="X34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220598</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934904</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327005</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30153,16 +30153,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934938</v>
+        <v>40.58157162934948</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>166.1290651424569</v>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="E40" t="n">
         <v>166.1290651424569</v>
@@ -30396,7 +30396,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>159.063286932391</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30487,7 +30487,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30627,22 +30627,22 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>46.68561682995332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30718,10 +30718,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>40.58157162934947</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,16 +30733,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.56549128550373</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30858,19 +30858,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>159.0632869323914</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>219.6048051172098</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.1605968596349</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>132.5571368501102</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>32.36882689013898</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>219.6048051172089</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>230.1605968596355</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>500.3883505493349</v>
+        <v>341.023067937624</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35419,19 +35419,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>467.8658484029148</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>181.0990756744518</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>179.7061035330225</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918311</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>351.977255077137</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
@@ -35662,13 +35662,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>316.1744724113365</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910353</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>317.4144799066862</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>107.2627471950482</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.594133936937226</v>
+        <v>2.594133936937254</v>
       </c>
       <c r="J17" t="n">
-        <v>148.7688042425596</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,7 +35890,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>404.1446723120001</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>171.4291167816821</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112399</v>
+        <v>83.95125710112401</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.39997291918311</v>
+        <v>107.2627471950482</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.594133936937226</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>148.7688042425596</v>
+        <v>246.4089630359925</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.0692755751151</v>
+        <v>174.0232507186192</v>
       </c>
       <c r="R20" t="n">
-        <v>83.95125710112399</v>
+        <v>83.95125710112401</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>179.7061035330225</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918311</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,16 +36352,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.594133936937226</v>
+        <v>2.594133936937254</v>
       </c>
       <c r="J23" t="n">
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>416.2491931086966</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>427.4423686992678</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36373,13 +36373,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>306.5045135185673</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>269.0692755751151</v>
       </c>
       <c r="R23" t="n">
-        <v>83.95125710112399</v>
+        <v>83.95125710112401</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.39997291918356</v>
+        <v>107.2627471950482</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.2118285589225</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>464.8295322606797</v>
+        <v>414.8853930156293</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
@@ -36607,7 +36607,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.155967803972</v>
+        <v>136.2118285589216</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36847,13 +36847,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>317.6457997040338</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37008,7 +37008,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.882884117823</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>252.8638622179164</v>
+        <v>386.7231141905272</v>
       </c>
       <c r="L32" t="n">
-        <v>495.5564485745306</v>
+        <v>495.5564485745307</v>
       </c>
       <c r="M32" t="n">
         <v>541.3683608655829</v>
@@ -37081,16 +37081,16 @@
         <v>526.309969385409</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>452.2425206835082</v>
       </c>
       <c r="P32" t="n">
-        <v>374.6185933938306</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>105.6839446843343</v>
       </c>
       <c r="R32" t="n">
-        <v>54.42517818295451</v>
+        <v>54.42517818295457</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>245.7803943475744</v>
       </c>
       <c r="M34" t="n">
-        <v>263.3424415469099</v>
+        <v>263.34244154691</v>
       </c>
       <c r="N34" t="n">
-        <v>263.7756088418581</v>
+        <v>140.9487121669088</v>
       </c>
       <c r="O34" t="n">
-        <v>120.7884139306365</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251123</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851714</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37321,13 +37321,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37449,16 +37449,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>14.96741926690627</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251127</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37549,7 +37549,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
         <v>548.2819527058061</v>
@@ -37561,7 +37561,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>7.522112691876044</v>
       </c>
       <c r="E40" t="n">
         <v>15.6401410461626</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.284368163872038</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37795,7 +37795,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37923,22 +37923,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.16225373803864</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>80.62924081444162</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>347.440244704472</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
@@ -38154,19 +38154,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.574362836097064</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.17321671797626</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938003</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
